--- a/biology/Zoologie/Euphydryas_editha/Euphydryas_editha.xlsx
+++ b/biology/Zoologie/Euphydryas_editha/Euphydryas_editha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Damier d'Edith
 Euphydryas editha, le Damier d'Edith, est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Nymphalinae et au genre Euphydryas présent dans l'ouest de l'Amérique du Nord.
@@ -512,13 +524,85 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euphydryas editha Jean-Baptiste Alphonse Dechauffour de Boisduval, 1852.
-Noms vernaculaires
-Il se nomme en anglais Edith’s Checkerspot.
-Sous-espèces
-Euphydryas editha alebarki Ferris, 1971 ; Klots’ Checkerspot
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphydryas editha Jean-Baptiste Alphonse Dechauffour de Boisduval, 1852.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme en anglais Edith’s Checkerspot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euphydryas editha alebarki Ferris, 1971 ; Klots’ Checkerspot
 Euphydryas editha aurilacus Gunder, 1928 ; Gold Lake Checkerspot
 Euphydryas editha baroni Edwards, 1879 ; Baron’s Checkerspot
 Euphydryas editha bayensis Sternitzky, 1937 ;  Bay Checkerspot
@@ -539,73 +623,7 @@
 Euphydryas editha remingtoni Burdick, 1959 ;
 Euphydryas editha rubicunda (H. Edwards, 1881) Ruddy Checkerspoten Californie.
 Euphydryas editha taylori (Edwards, 1888) ; Taylor’s Checkerspot en Colombie Britannique.
-Euphydryas editha wrighti Gunder, 1929  Wright’s Checkerspot[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euphydryas_editha</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euphydryas_editha</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un papillon qui présente des damiers rouge orangé, marron et crème disposés en lignes.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Euphydryas_editha</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euphydryas_editha</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Chenille</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est foncée, soit à poils blancs soit anelée de blanc.
-Période de vol et hivernation
-Au Canada les papillons sont visibles entre avril et mai dans l'île de Vancouver, mais en juin et en juillet, et parfois même en août plus à l'est[2]
-Plantes hôtes
-Les plantes hôtes de la chenille sont des Plantago, des Castilleja, des Pedicularis, des  Orthocarpus et des Scrophulariaceae[1].
-</t>
+Euphydryas editha wrighti Gunder, 1929  Wright’s Checkerspot.</t>
         </is>
       </c>
     </row>
@@ -630,16 +648,228 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon qui présente des damiers rouge orangé, marron et crème disposés en lignes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est foncée, soit à poils blancs soit anelée de blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Canada les papillons sont visibles entre avril et mai dans l'île de Vancouver, mais en juin et en juillet, et parfois même en août plus à l'est
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Plantago, des Castilleja, des Pedicularis, des  Orthocarpus et des Scrophulariaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans l'ouest de l'Amérique du Nord, du Canada (Colombie-Britannique et Alberta) jusqu'au Mexique[1].
-Biotope
-Les biotopes sont divers dont prairies et forêts[2].
-Protection
-La sous-espèce Euphydryas editha quino ou Quino Checkerspoten présente en Californie est déclarée « en danger »[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans l'ouest de l'Amérique du Nord, du Canada (Colombie-Britannique et Alberta) jusqu'au Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les biotopes sont divers dont prairies et forêts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_editha</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Euphydryas editha quino ou Quino Checkerspoten présente en Californie est déclarée « en danger ».
 La sous-espèce Euphydryas editha taylori présente uniquement dans deux localités du sud de l'île de Vancouver figure sur la liste canadienne des espèces en danger de disparition.
 Sur les autres projets Wikimedia :
 Euphydryas editha, sur Wikimedia Commons
